--- a/clojure-course/src/clojure_course/week13/ships_positions.xlsx
+++ b/clojure-course/src/clojure_course/week13/ships_positions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\PCU\SymbolicComputation2304\SymbolicComputation2304\clojure-course\src\clojure_course\week13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{123CCDB1-B5AA-4B09-8ACE-BC06DAF9B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9D8BD-03FE-427C-9A52-B5C880FD4D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1800" yWindow="1740" windowWidth="9576" windowHeight="6600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ships_positions_100" sheetId="1" r:id="rId1"/>
     <sheet name="ships_positions_1000" sheetId="2" r:id="rId2"/>
+    <sheet name="ships_positions_5" sheetId="3" r:id="rId3"/>
+    <sheet name="ships_positions_15" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1230,7 +1232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1567,6 +1569,700 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AD949A-F99C-4250-AA24-D5B83659DDF0}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1B19-45E0-4EB5-A3DB-A5EC2780F0EA}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
